--- a/localizations/Translations.xlsx
+++ b/localizations/Translations.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>id</t>
   </si>
@@ -277,6 +277,15 @@
   </si>
   <si>
     <t xml:space="preserve">Puntuación: {score}</t>
+  </si>
+  <si>
+    <t>mm_back</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Atrás</t>
   </si>
 </sst>
 </file>
@@ -1168,6 +1177,17 @@
         <v>86</v>
       </c>
     </row>
+    <row r="30" ht="16.5">
+      <c r="A30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
